--- a/results/DecisionTreeClassifier-train_df.xlsx
+++ b/results/DecisionTreeClassifier-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.58</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6590909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7906976744186046</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.693877551020408</v>
+        <v>0.6444444444444444</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6559139784946236</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6853488372093023</v>
+        <v>0.6901477832512315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6906698564593301</v>
+        <v>0.684688995215311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6764842300556586</v>
+        <v>0.6555555555555554</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7046061515378844</v>
+        <v>0.715451030245246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6796636543180321</v>
+        <v>0.6535244922341696</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6458333333333333</v>
+        <v>0.6373626373626373</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6472795497185742</v>
+        <v>0.6747076023391814</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6502392344497607</v>
+        <v>0.6715311004784689</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6340277777777777</v>
+        <v>0.6449971081550029</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6671710141419032</v>
+        <v>0.698626045400239</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6361857825567503</v>
+        <v>0.643601559730592</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7674418604651163</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="D13" t="n">
-        <v>0.673469387755102</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6637209302325582</v>
+        <v>0.6373069498069499</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6684210526315789</v>
+        <v>0.6361244019138756</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6549165120593692</v>
+        <v>0.6128584643848288</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.682680670167542</v>
+        <v>0.659141860754764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6583078979392343</v>
+        <v>0.6120975202172421</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.625</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6578947368421053</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7547169811320755</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.5897435897435896</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6559139784946236</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6898584905660378</v>
+        <v>0.7714285714285714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6925837320574163</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6908831908831909</v>
+        <v>0.6467236467236467</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7017143436802598</v>
+        <v>0.8132104454685101</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6999969365560763</v>
+        <v>0.6363079373832061</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.625</v>
       </c>
       <c r="C22" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D22" t="n">
-        <v>0.64</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.75</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.7400000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6993243243243243</v>
+        <v>0.7236111111111111</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6976076555023923</v>
+        <v>0.7311004784688995</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6983783783783784</v>
+        <v>0.7188372093023256</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7085876198779424</v>
+        <v>0.7416367980884111</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7090496948561464</v>
+        <v>0.7227056764191048</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/DecisionTreeClassifier-train_df.xlsx
+++ b/results/DecisionTreeClassifier-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6444444444444444</v>
+        <v>0.7326732673267325</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6901477832512315</v>
+        <v>0.7106845513413507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.684688995215311</v>
+        <v>0.7179425837320574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6555555555555554</v>
+        <v>0.7075131042516016</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.715451030245246</v>
+        <v>0.7278057951120527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6535244922341696</v>
+        <v>0.7121122738459804</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.543859649122807</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6526315789473685</v>
+        <v>0.6478873239436619</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6373626373626373</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7311827956989247</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6747076023391814</v>
+        <v>0.7234848484848485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6715311004784689</v>
+        <v>0.7117224880382775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6449971081550029</v>
+        <v>0.7152480097979179</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.698626045400239</v>
+        <v>0.7283317041381557</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D11" t="n">
-        <v>0.643601559730592</v>
+        <v>0.7275612534486958</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.5483870967741936</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13" t="n">
-        <v>0.509090909090909</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.608695652173913</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6373069498069499</v>
+        <v>0.7019927536231885</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6361244019138756</v>
+        <v>0.6600478468899521</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6128584643848288</v>
+        <v>0.6612903225806452</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.659141860754764</v>
+        <v>0.7008337229234846</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6120975202172421</v>
+        <v>0.6819285466527922</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4181818181818182</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5897435897435896</v>
+        <v>0.7735849056603775</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7714285714285714</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7411483253588517</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6467236467236467</v>
+        <v>0.7367924528301888</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8132104454685101</v>
+        <v>0.7478389205144423</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6363079373832061</v>
+        <v>0.7435179549604384</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.625</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7400000000000001</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7236111111111111</v>
+        <v>0.7020833333333334</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7311004784688995</v>
+        <v>0.7088516746411484</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7188372093023256</v>
+        <v>0.6972093023255814</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7416367980884111</v>
+        <v>0.7199820788530465</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7227056764191048</v>
+        <v>0.7013753438359589</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/DecisionTreeClassifier-train_df.xlsx
+++ b/results/DecisionTreeClassifier-train_df.xlsx
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.696969696969697</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6478873239436619</v>
+        <v>0.6336633663366337</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7826086956521738</v>
+        <v>0.5647058823529413</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6021505376344086</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7234848484848485</v>
+        <v>0.653968253968254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7117224880382775</v>
+        <v>0.6392344497607655</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7152480097979179</v>
+        <v>0.5991846243447875</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7283317041381557</v>
+        <v>0.6806622290493258</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7275612534486958</v>
+        <v>0.5928820586043425</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5483870967741936</v>
+        <v>0.5822784810126583</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.6915887850467289</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7019927536231885</v>
+        <v>0.6362570356472796</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6600478468899521</v>
+        <v>0.6389952153110048</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6612903225806452</v>
+        <v>0.6369336330296936</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7008337229234846</v>
+        <v>0.6500181565091085</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6819285466527922</v>
+        <v>0.6469243597424851</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6744186046511628</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7200000000000001</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7849462365591398</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7020833333333334</v>
+        <v>0.788888888888889</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7088516746411484</v>
+        <v>0.7612440191387559</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6972093023255814</v>
+        <v>0.7681954137587239</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7199820788530465</v>
+        <v>0.7868578255675029</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7013753438359589</v>
+        <v>0.7795859732630066</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
